--- a/Results/gpt-5/Yuan2022, 35910928/cost.xlsx
+++ b/Results/gpt-5/Yuan2022, 35910928/cost.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15011</v>
+        <v>18547</v>
       </c>
     </row>
     <row r="3">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9814</v>
+        <v>12020</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24825</v>
+        <v>30567</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00467615</v>
+        <v>0.14338375</v>
       </c>
     </row>
   </sheetData>
